--- a/public/data/db_source/doc_institution.xlsx
+++ b/public/data/db_source/doc_institution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C12FA5-F214-F64A-987F-84A4ABC0647C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB51B81B-D653-2441-9DA5-6F3CB700274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10960" yWindow="500" windowWidth="14280" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>institution_id</t>
   </si>
@@ -28,10 +28,16 @@
     <t>pdf_wiki</t>
   </si>
   <si>
-    <t>institution_1</t>
-  </si>
-  <si>
     <t>doc_id</t>
+  </si>
+  <si>
+    <t>suisse</t>
+  </si>
+  <si>
+    <t>pop_com_1</t>
+  </si>
+  <si>
+    <t>ofs-pop</t>
   </si>
 </sst>
 </file>
@@ -87,8 +93,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D411DE4-F6CC-B34F-83DD-A8AB904C9840}" name="Tableau1" displayName="Tableau1" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{9D411DE4-F6CC-B34F-83DD-A8AB904C9840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D411DE4-F6CC-B34F-83DD-A8AB904C9840}" name="Tableau1" displayName="Tableau1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{9D411DE4-F6CC-B34F-83DD-A8AB904C9840}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{489DE2DA-302F-DA4C-B2C4-ED5D7CCA16C6}" name="doc_id"/>
     <tableColumn id="2" xr3:uid="{9AE93FC0-EECD-D541-8F67-E07A1DF8A24F}" name="institution_id"/>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -398,7 +404,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -409,7 +415,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
